--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>налагоджувач:</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>400000</t>
+  </si>
+  <si>
+    <t>400004781</t>
+  </si>
+  <si>
+    <t>Čelist MIM1  (A355)</t>
+  </si>
+  <si>
+    <t>4782</t>
+  </si>
+  <si>
+    <t>Čelist MIM2  (A355)</t>
+  </si>
+  <si>
+    <t>400004782</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1208,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s"/>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -1209,53 +1224,103 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1201</v>
+      </c>
       <c r="G16" s="1" t="n"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1201</v>
+      </c>
       <c r="G17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1210</v>
+      </c>
       <c r="G18" s="1" t="n"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1210</v>
+      </c>
       <c r="G19" s="1" t="n"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1211</v>
+      </c>
       <c r="G20" s="1" t="n"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>

--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>загальна інформація</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>anvil</t>
+  </si>
+  <si>
+    <t>400005514</t>
+  </si>
+  <si>
+    <t>400005518</t>
+  </si>
+  <si>
+    <t>anvil wire</t>
+  </si>
+  <si>
+    <t>400000614</t>
+  </si>
+  <si>
+    <t>crimper insulation</t>
+  </si>
+  <si>
+    <t>400000901</t>
   </si>
 </sst>
 </file>
@@ -275,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -299,26 +317,29 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -615,17 +636,17 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="14.42578125"/>
-    <col customWidth="1" max="2" min="2" style="12" width="15.5703125"/>
+    <col customWidth="1" max="2" min="2" style="15" width="15.5703125"/>
     <col customWidth="1" max="3" min="3" style="16" width="12"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="14.28515625"/>
-    <col customWidth="1" max="5" min="5" style="12" width="14.28515625"/>
+    <col customWidth="1" max="5" min="5" style="15" width="14.28515625"/>
     <col customWidth="1" max="6" min="6" style="16" width="13"/>
     <col customWidth="1" max="7" min="7" style="16" width="7.5703125"/>
   </cols>
@@ -643,13 +664,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>3012</v>
       </c>
     </row>
@@ -938,13 +959,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1235,13 +1256,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1532,13 +1553,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1849,13 +1870,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1878,8 +1899,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1957,165 +1978,343 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="G6" s="1" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="G8" s="1" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="G9" s="1" t="n"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="G10" s="1" t="n"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="G11" s="1" t="n"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="G12" s="1" t="n"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="G13" s="1" t="n"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>43</v>
+      </c>
       <c r="G14" s="1" t="n"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>43</v>
+      </c>
       <c r="G15" s="1" t="n"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="G16" s="1" t="n"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="G17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="G18" s="1" t="n"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="G19" s="1" t="n"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="G20" s="1" t="n"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="G21" s="1" t="n"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="G22" s="1" t="n"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="G23" s="1" t="n"/>
     </row>
     <row r="24" spans="1:7">
@@ -2146,13 +2345,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2443,13 +2642,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2740,13 +2939,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3037,13 +3236,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3334,13 +3533,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3631,13 +3830,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3673,7 +3872,8 @@
     <col customWidth="1" max="6" min="6" style="16" width="14.28515625"/>
     <col customWidth="1" max="7" min="7" style="16" width="10.42578125"/>
     <col customWidth="1" max="8" min="8" style="16" width="2.42578125"/>
-    <col customWidth="1" max="16384" min="9" style="16" width="9.140625"/>
+    <col customWidth="1" max="12" min="9" style="16" width="9.140625"/>
+    <col customWidth="1" max="16384" min="13" style="16" width="9.140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" s="16" spans="1:7">
@@ -3927,13 +4127,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4223,13 +4423,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4519,13 +4719,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4815,13 +5015,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5111,13 +5311,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5407,13 +5607,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5703,13 +5903,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5999,13 +6199,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6295,13 +6495,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6591,13 +6791,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6887,13 +7087,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7183,13 +7383,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="16" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7479,13 +7679,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7775,13 +7975,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8071,13 +8271,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8367,13 +8567,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8663,13 +8863,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8959,13 +9159,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9255,13 +9455,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9551,13 +9751,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9847,13 +10047,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10143,13 +10343,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10439,13 +10639,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10735,13 +10935,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11031,13 +11231,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11327,13 +11527,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11623,13 +11823,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11919,13 +12119,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12215,13 +12415,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12511,13 +12711,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12807,13 +13007,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13103,13 +13303,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13399,13 +13599,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13695,13 +13895,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13991,13 +14191,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14287,13 +14487,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14583,13 +14783,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14879,13 +15079,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15175,13 +15375,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15471,13 +15671,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15767,13 +15967,13 @@
       <c r="G26" s="1" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
     </row>

--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -154,10 +154,10 @@
     <t>400000614</t>
   </si>
   <si>
-    <t>crimper insulation</t>
+    <t>400000901</t>
   </si>
   <si>
-    <t>400000901</t>
+    <t>crimper insulation</t>
   </si>
 </sst>
 </file>
@@ -2130,10 +2130,10 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -2142,14 +2142,14 @@
         <v>80001840</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="n"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -2168,10 +2168,10 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>

--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -142,22 +142,22 @@
     <t>anvil</t>
   </si>
   <si>
-    <t>400005514</t>
+    <t>400003034</t>
   </si>
   <si>
-    <t>400005518</t>
+    <t>sonotrode</t>
   </si>
   <si>
-    <t>anvil wire</t>
+    <t>400003037</t>
   </si>
   <si>
-    <t>400000614</t>
+    <t>anvil plate</t>
   </si>
   <si>
-    <t>400000901</t>
+    <t>400003035</t>
   </si>
   <si>
-    <t>crimper insulation</t>
+    <t>anvil weld</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B7" sqref="B7:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1978,7 +1978,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -1990,17 +1990,17 @@
         <v>80001840</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -2009,17 +2009,17 @@
         <v>80001840</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -2028,17 +2028,17 @@
         <v>80001840</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -2047,17 +2047,17 @@
         <v>80001840</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="n"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -2066,14 +2066,14 @@
         <v>80001840</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2085,7 +2085,7 @@
         <v>80001840</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="n"/>
     </row>
@@ -2095,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -2104,17 +2104,17 @@
         <v>80001840</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="n"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -2123,17 +2123,17 @@
         <v>80001840</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="n"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -2142,14 +2142,14 @@
         <v>80001840</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="n"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -2161,160 +2161,82 @@
         <v>80001840</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="n"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>80001840</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
     </row>
     <row r="24" spans="1:7">
@@ -3872,8 +3794,8 @@
     <col customWidth="1" max="6" min="6" style="16" width="14.28515625"/>
     <col customWidth="1" max="7" min="7" style="16" width="10.42578125"/>
     <col customWidth="1" max="8" min="8" style="16" width="2.42578125"/>
-    <col customWidth="1" max="12" min="9" style="16" width="9.140625"/>
-    <col customWidth="1" max="16384" min="13" style="16" width="9.140625"/>
+    <col customWidth="1" max="16" min="9" style="16" width="9.140625"/>
+    <col customWidth="1" max="16384" min="17" style="16" width="9.140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" s="16" spans="1:7">

--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>загальна інформація</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>anvil weld</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -2168,26 +2171,46 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>66</v>
+      </c>
       <c r="G16" s="1" t="n"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>67</v>
+      </c>
       <c r="G17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>

--- a/spare_parts/3012.xlsx
+++ b/spare_parts/3012.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>загальна інформація</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2209,80 +2218,160 @@
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>68</v>
+      </c>
       <c r="G18" s="1" t="n"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>68</v>
+      </c>
       <c r="G19" s="1" t="n"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>68</v>
+      </c>
       <c r="G20" s="1" t="n"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>68</v>
+      </c>
       <c r="G21" s="1" t="n"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="G22" s="1" t="n"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="G23" s="1" t="n"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="G24" s="1" t="n"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="G25" s="1" t="n"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
